--- a/biology/Botanique/Cynometra_ramiflora/Cynometra_ramiflora.xlsx
+++ b/biology/Botanique/Cynometra_ramiflora/Cynometra_ramiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynometra ramiflora, appelé Katong à Singapour, est une espèce d’arbres toujours vert, de la famille des Fabaceae, pouvant atteindre 20 à 25 mètres de hauteur. Les jeunes feuilles sont roses avant de passer au vert foncé. Les fleurs blanches apparaissent en grappes. Le bois a une valeur commerciale, et convient surtout pour l'usage intérieur. Il est attaqué par les insectes à l'extérieur et exige un traitement[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynometra ramiflora, appelé Katong à Singapour, est une espèce d’arbres toujours vert, de la famille des Fabaceae, pouvant atteindre 20 à 25 mètres de hauteur. Les jeunes feuilles sont roses avant de passer au vert foncé. Les fleurs blanches apparaissent en grappes. Le bois a une valeur commerciale, et convient surtout pour l'usage intérieur. Il est attaqué par les insectes à l'extérieur et exige un traitement.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 août 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 août 2014) :
 variété Cynometra ramiflora var. bifoliolata
 variété Cynometra ramiflora var. ramiflora
-Selon The Plant List            (6 août 2014)[1] :
+Selon The Plant List            (6 août 2014) :
 variété Cynometra ramiflora var. bifoliolata (Merr.) Meeuwen
-Selon Tropicos                                           (6 août 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Cynometra ramiflora subsp. bijuga (Spanoghe ex Miq.) Prain
 sous-espèce Cynometra ramiflora subsp. ramiflora
 variété Cynometra ramiflora var. bifoliolata (Merr.) Meeuwen
